--- a/relatorios/repasses_liberados/dentistas/09030895489/2023-08-25_relatorio_repasses_09030895489.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09030895489/2023-08-25_relatorio_repasses_09030895489.xlsx
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N168">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/09030895489/2023-08-25_relatorio_repasses_09030895489.xlsx
+++ b/relatorios/repasses_liberados/dentistas/09030895489/2023-08-25_relatorio_repasses_09030895489.xlsx
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N24">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1790,10 +1790,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1834,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1878,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1966,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2054,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2142,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2230,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
-        <v>10.02</v>
+        <v>7.515</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2274,10 +2274,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N37">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N38">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N39">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N40">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N42">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2582,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N43">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2626,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N44">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2714,10 +2714,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N46">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2802,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N48">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N49">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2890,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N50">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3330,10 +3330,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3418,10 +3418,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3462,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3506,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N69">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3770,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3814,10 +3814,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N71">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3858,10 +3858,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N72">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N73">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3990,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4034,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N76">
-        <v>8.279999999999999</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4122,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4166,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4210,10 +4210,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4254,10 +4254,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N84">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4562,10 +4562,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N88">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4606,10 +4606,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4650,10 +4650,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4694,10 +4694,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4738,10 +4738,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N92">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N93">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4870,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N95">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4914,10 +4914,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4958,10 +4958,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5002,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5046,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N99">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5090,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -5134,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N101">
-        <v>35.7</v>
+        <v>26.775</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5310,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N105">
-        <v>16.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5354,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N106">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5398,10 +5398,10 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N107">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5442,10 +5442,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N108">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N109">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5530,10 +5530,10 @@
         <v>0</v>
       </c>
       <c r="M110">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N110">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5574,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5662,10 +5662,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N113">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5706,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6014,10 +6014,10 @@
         <v>1</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6322,7 +6322,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -6894,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8170,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
         <v>0</v>
